--- a/biology/Botanique/Bulbophyllum_minutissimum/Bulbophyllum_minutissimum.xlsx
+++ b/biology/Botanique/Bulbophyllum_minutissimum/Bulbophyllum_minutissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbophyllum minutissimum est une espèce d’orchidées australienne épiphyte ou lithophyte du genre Bulbophyllum. En anglais, elle est nommée red bead orchid (signifiant « orchidée perle rouge »)[1]  et grain-of-wheat orchid (signifiant « orchidée grain-de-blé »)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbophyllum minutissimum est une espèce d’orchidées australienne épiphyte ou lithophyte du genre Bulbophyllum. En anglais, elle est nommée red bead orchid (signifiant « orchidée perle rouge »)  et grain-of-wheat orchid (signifiant « orchidée grain-de-blé »).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B. minutissimum est composée de petits pseudobulbes aplatis et sphériques, rougeâtres ou verts mesurant 2 à 3 mm de diamètre. Chaque pseudobulbe possède une feuille unique, linéaire ou lancéolée, d'environ 1 mm de long. Une fleur unique d'environ 2,5 mm de long et de 3,5 mm de large est portée par une tige florale filiforme d'environ 3 mm de long. Cette fleur aux sépale et pétales blanchâtre à rougeâtre agrémentés de larges rayures rouge est ornée d'un labelle rouge courbé et charnu. Sa floraison se déroule d'octobre à novembre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. minutissimum est composée de petits pseudobulbes aplatis et sphériques, rougeâtres ou verts mesurant 2 à 3 mm de diamètre. Chaque pseudobulbe possède une feuille unique, linéaire ou lancéolée, d'environ 1 mm de long. Une fleur unique d'environ 2,5 mm de long et de 3,5 mm de large est portée par une tige florale filiforme d'environ 3 mm de long. Cette fleur aux sépale et pétales blanchâtre à rougeâtre agrémentés de larges rayures rouge est ornée d'un labelle rouge courbé et charnu. Sa floraison se déroule d'octobre à novembre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B. minutissimum se développe sur les arbres et les rochers, principalement dans les marécages, les berges des cours d'eau et les mangroves de l'Est de l'Australie ; notamment entre le Parc national de Blackdown Tableland (en) (Région des Central Highlands, Queensland) et Milton en Nouvelle-Galles du Sud[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. minutissimum se développe sur les arbres et les rochers, principalement dans les marécages, les berges des cours d'eau et les mangroves de l'Est de l'Australie ; notamment entre le Parc national de Blackdown Tableland (en) (Région des Central Highlands, Queensland) et Milton en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon les jardins botaniques royaux de Kew[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon les jardins botaniques royaux de Kew :
 Dendrobium minutissimum F.Muell., 1865
 Phyllorkis minutissima (F.Muell.) Kuntze, 1891
 Oncophyllum minutissimum (F.Muell.) D.L.Jones &amp; M.A.Clem., 2001
